--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaal_Auto_Fiets.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaal_Auto_Fiets.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>884</v>
+        <v>891.2072356207559</v>
       </c>
       <c r="C2">
-        <v>1287</v>
+        <v>1292.426469196052</v>
       </c>
       <c r="D2">
-        <v>1505</v>
+        <v>1513.268987381566</v>
       </c>
       <c r="E2">
-        <v>1635</v>
+        <v>1641.065310037129</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>914</v>
+        <v>918.8464568727627</v>
       </c>
       <c r="C3">
-        <v>1309</v>
+        <v>1316.046994716525</v>
       </c>
       <c r="D3">
-        <v>1519</v>
+        <v>1526.353396908353</v>
       </c>
       <c r="E3">
-        <v>1643</v>
+        <v>1649.511916152012</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>844</v>
+        <v>848.1439060241668</v>
       </c>
       <c r="C4">
-        <v>1255</v>
+        <v>1258.863885985375</v>
       </c>
       <c r="D4">
-        <v>1487</v>
+        <v>1495.827970547305</v>
       </c>
       <c r="E4">
-        <v>1622</v>
+        <v>1628.84884246994</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -439,16 +439,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>959</v>
+        <v>965.1838895242677</v>
       </c>
       <c r="C5">
-        <v>1351</v>
+        <v>1356.706564784675</v>
       </c>
       <c r="D5">
-        <v>1524</v>
+        <v>1533.643576109059</v>
       </c>
       <c r="E5">
-        <v>1661</v>
+        <v>1665.468823484424</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>948</v>
+        <v>956.0626579123599</v>
       </c>
       <c r="C6">
-        <v>1342</v>
+        <v>1348.444573026424</v>
       </c>
       <c r="D6">
-        <v>1522</v>
+        <v>1529.488738046546</v>
       </c>
       <c r="E6">
-        <v>1657</v>
+        <v>1662.538223456871</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>974</v>
+        <v>978.3911234606398</v>
       </c>
       <c r="C7">
-        <v>1359</v>
+        <v>1364.568010954196</v>
       </c>
       <c r="D7">
-        <v>1545</v>
+        <v>1551.682984912907</v>
       </c>
       <c r="E7">
-        <v>1661</v>
+        <v>1666.496209868257</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -490,16 +490,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>851</v>
+        <v>857.551967363283</v>
       </c>
       <c r="C8">
-        <v>1248</v>
+        <v>1250.574057006675</v>
       </c>
       <c r="D8">
-        <v>1487</v>
+        <v>1492.356754863324</v>
       </c>
       <c r="E8">
-        <v>1612</v>
+        <v>1621.016637854812</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>963</v>
+        <v>968.2246803912416</v>
       </c>
       <c r="C9">
-        <v>1348</v>
+        <v>1354.716259628011</v>
       </c>
       <c r="D9">
-        <v>1539</v>
+        <v>1546.03308546757</v>
       </c>
       <c r="E9">
-        <v>1654</v>
+        <v>1663.019301873826</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -524,16 +524,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>980</v>
+        <v>984.3029141654705</v>
       </c>
       <c r="C10">
-        <v>1359</v>
+        <v>1364.70517786298</v>
       </c>
       <c r="D10">
-        <v>1547</v>
+        <v>1549.14632661318</v>
       </c>
       <c r="E10">
-        <v>1658</v>
+        <v>1662.741626091052</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -541,16 +541,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>979</v>
+        <v>983.7696678525957</v>
       </c>
       <c r="C11">
-        <v>1361</v>
+        <v>1365.677207529634</v>
       </c>
       <c r="D11">
-        <v>1542</v>
+        <v>1550.616153404513</v>
       </c>
       <c r="E11">
-        <v>1659</v>
+        <v>1664.139707617842</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>960</v>
+        <v>962.237953507247</v>
       </c>
       <c r="C12">
-        <v>1340</v>
+        <v>1344.200000400687</v>
       </c>
       <c r="D12">
-        <v>1531</v>
+        <v>1536.50930804584</v>
       </c>
       <c r="E12">
-        <v>1646</v>
+        <v>1650.286811872499</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -575,16 +575,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>978</v>
+        <v>982.220056285759</v>
       </c>
       <c r="C13">
-        <v>1357</v>
+        <v>1362.354721856804</v>
       </c>
       <c r="D13">
-        <v>1545</v>
+        <v>1547.281993772236</v>
       </c>
       <c r="E13">
-        <v>1655</v>
+        <v>1660.983155509591</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaal_Auto_Fiets.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaal_Auto_Fiets.xlsx
@@ -391,7 +391,7 @@
         <v>891.2072356207559</v>
       </c>
       <c r="C2">
-        <v>1292.426469196052</v>
+        <v>1292.426469196053</v>
       </c>
       <c r="D2">
         <v>1513.268987381566</v>
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>918.8464568727627</v>
+        <v>918.8464568727625</v>
       </c>
       <c r="C3">
-        <v>1316.046994716525</v>
+        <v>1316.046994716524</v>
       </c>
       <c r="D3">
         <v>1526.353396908353</v>
       </c>
       <c r="E3">
-        <v>1649.511916152012</v>
+        <v>1649.511916152014</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,7 +422,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>848.1439060241668</v>
+        <v>848.1439060241665</v>
       </c>
       <c r="C4">
         <v>1258.863885985375</v>
@@ -439,7 +439,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>965.1838895242677</v>
+        <v>965.183889524268</v>
       </c>
       <c r="C5">
         <v>1356.706564784675</v>
@@ -456,13 +456,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>956.0626579123599</v>
+        <v>956.0626579123605</v>
       </c>
       <c r="C6">
-        <v>1348.444573026424</v>
+        <v>1348.444573026425</v>
       </c>
       <c r="D6">
-        <v>1529.488738046546</v>
+        <v>1529.488738046544</v>
       </c>
       <c r="E6">
         <v>1662.538223456871</v>
@@ -473,7 +473,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>978.3911234606398</v>
+        <v>978.3911234606396</v>
       </c>
       <c r="C7">
         <v>1364.568010954196</v>
@@ -490,13 +490,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>857.551967363283</v>
+        <v>857.5519673632822</v>
       </c>
       <c r="C8">
         <v>1250.574057006675</v>
       </c>
       <c r="D8">
-        <v>1492.356754863324</v>
+        <v>1492.356754863325</v>
       </c>
       <c r="E8">
         <v>1621.016637854812</v>
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>968.2246803912416</v>
+        <v>968.2246803912408</v>
       </c>
       <c r="C9">
-        <v>1354.716259628011</v>
+        <v>1354.716259628012</v>
       </c>
       <c r="D9">
-        <v>1546.03308546757</v>
+        <v>1546.033085467571</v>
       </c>
       <c r="E9">
-        <v>1663.019301873826</v>
+        <v>1663.019301873827</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -524,13 +524,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>984.3029141654705</v>
+        <v>984.302914165471</v>
       </c>
       <c r="C10">
-        <v>1364.70517786298</v>
+        <v>1364.705177862979</v>
       </c>
       <c r="D10">
-        <v>1549.14632661318</v>
+        <v>1549.146326613181</v>
       </c>
       <c r="E10">
         <v>1662.741626091052</v>
@@ -544,13 +544,13 @@
         <v>983.7696678525957</v>
       </c>
       <c r="C11">
-        <v>1365.677207529634</v>
+        <v>1365.677207529635</v>
       </c>
       <c r="D11">
-        <v>1550.616153404513</v>
+        <v>1550.616153404514</v>
       </c>
       <c r="E11">
-        <v>1664.139707617842</v>
+        <v>1664.13970761784</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,13 +558,13 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>962.237953507247</v>
+        <v>962.2379535072466</v>
       </c>
       <c r="C12">
         <v>1344.200000400687</v>
       </c>
       <c r="D12">
-        <v>1536.50930804584</v>
+        <v>1536.509308045841</v>
       </c>
       <c r="E12">
         <v>1650.286811872499</v>
@@ -575,13 +575,13 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>982.220056285759</v>
+        <v>982.2200562857588</v>
       </c>
       <c r="C13">
         <v>1362.354721856804</v>
       </c>
       <c r="D13">
-        <v>1547.281993772236</v>
+        <v>1547.281993772237</v>
       </c>
       <c r="E13">
         <v>1660.983155509591</v>

--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaal_Auto_Fiets.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaal_Auto_Fiets.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>891.2072356207559</v>
+        <v>891</v>
       </c>
       <c r="C2">
-        <v>1292.426469196053</v>
+        <v>1292</v>
       </c>
       <c r="D2">
-        <v>1513.268987381566</v>
+        <v>1513</v>
       </c>
       <c r="E2">
-        <v>1641.065310037129</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>918.8464568727625</v>
+        <v>919</v>
       </c>
       <c r="C3">
-        <v>1316.046994716524</v>
+        <v>1316</v>
       </c>
       <c r="D3">
-        <v>1526.353396908353</v>
+        <v>1526</v>
       </c>
       <c r="E3">
-        <v>1649.511916152014</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>848.1439060241665</v>
+        <v>848</v>
       </c>
       <c r="C4">
-        <v>1258.863885985375</v>
+        <v>1259</v>
       </c>
       <c r="D4">
-        <v>1495.827970547305</v>
+        <v>1496</v>
       </c>
       <c r="E4">
-        <v>1628.84884246994</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -439,16 +439,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>965.183889524268</v>
+        <v>965</v>
       </c>
       <c r="C5">
-        <v>1356.706564784675</v>
+        <v>1357</v>
       </c>
       <c r="D5">
-        <v>1533.643576109059</v>
+        <v>1534</v>
       </c>
       <c r="E5">
-        <v>1665.468823484424</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>956.0626579123605</v>
+        <v>956</v>
       </c>
       <c r="C6">
-        <v>1348.444573026425</v>
+        <v>1348</v>
       </c>
       <c r="D6">
-        <v>1529.488738046544</v>
+        <v>1529</v>
       </c>
       <c r="E6">
-        <v>1662.538223456871</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>978.3911234606396</v>
+        <v>978</v>
       </c>
       <c r="C7">
-        <v>1364.568010954196</v>
+        <v>1365</v>
       </c>
       <c r="D7">
-        <v>1551.682984912907</v>
+        <v>1552</v>
       </c>
       <c r="E7">
-        <v>1666.496209868257</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -490,16 +490,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>857.5519673632822</v>
+        <v>858</v>
       </c>
       <c r="C8">
-        <v>1250.574057006675</v>
+        <v>1251</v>
       </c>
       <c r="D8">
-        <v>1492.356754863325</v>
+        <v>1492</v>
       </c>
       <c r="E8">
-        <v>1621.016637854812</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>968.2246803912408</v>
+        <v>968</v>
       </c>
       <c r="C9">
-        <v>1354.716259628012</v>
+        <v>1355</v>
       </c>
       <c r="D9">
-        <v>1546.033085467571</v>
+        <v>1546</v>
       </c>
       <c r="E9">
-        <v>1663.019301873827</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -524,16 +524,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>984.302914165471</v>
+        <v>984</v>
       </c>
       <c r="C10">
-        <v>1364.705177862979</v>
+        <v>1365</v>
       </c>
       <c r="D10">
-        <v>1549.146326613181</v>
+        <v>1549</v>
       </c>
       <c r="E10">
-        <v>1662.741626091052</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -541,16 +541,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>983.7696678525957</v>
+        <v>984</v>
       </c>
       <c r="C11">
-        <v>1365.677207529635</v>
+        <v>1366</v>
       </c>
       <c r="D11">
-        <v>1550.616153404514</v>
+        <v>1551</v>
       </c>
       <c r="E11">
-        <v>1664.13970761784</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>962.2379535072466</v>
+        <v>962</v>
       </c>
       <c r="C12">
-        <v>1344.200000400687</v>
+        <v>1344</v>
       </c>
       <c r="D12">
-        <v>1536.509308045841</v>
+        <v>1537</v>
       </c>
       <c r="E12">
-        <v>1650.286811872499</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -575,16 +575,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>982.2200562857588</v>
+        <v>982</v>
       </c>
       <c r="C13">
-        <v>1362.354721856804</v>
+        <v>1362</v>
       </c>
       <c r="D13">
-        <v>1547.281993772237</v>
+        <v>1547</v>
       </c>
       <c r="E13">
-        <v>1660.983155509591</v>
+        <v>1661</v>
       </c>
     </row>
   </sheetData>
